--- a/outputs/grades.xlsx
+++ b/outputs/grades.xlsx
@@ -520,26 +520,26 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>38950</t>
+          <t>38970</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>84.21091445427729</v>
+        <v>90.56047197640117</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>35/58</t>
+          <t>41/58</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>E2E Tests (+3), Integration Tests (+3), Quick Start Guide (+1), Troubleshooting Guide (+3), License (+2), Contributing Guide (+3), TypeScript (+2), CI/CD Pipeline (+2), User Stories (+3), Functional Requirements (+2), Non-Functional Requirements (+3), Performance Metrics (+2), Future Considerations/Roadmap (+3), KPIs/Success Metrics (+3), Architecture/Flow Diagrams (+3), Code Quality Tools (Linting/Formatting) (+3)</t>
+          <t>E2E Tests (+1), Troubleshooting Guide (+1), Contributing Guide (+1), Docker Support (+1), Deployment Guide (+1), Kubernetes Support (+1), User Stories (+1), Non-Functional Requirements (+1), Future Considerations/Roadmap (+1), Architecture/Flow Diagrams (+1), Charts/Interactive Dashboards (+1), Code Quality Tools (Linting/Formatting) (+1), Accessibility Documentation (+1), Git Best Practices (Multiple Commits) (+1)</t>
         </is>
       </c>
     </row>
@@ -549,26 +549,26 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>38970</t>
+          <t>38981</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>90.56047197640117</v>
+        <v>82.57374631268436</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>100</v>
+        <v>95.57374631268436</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>41/58</t>
+          <t>35/58</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>E2E Tests (+3), Quick Start Guide (+1), Troubleshooting Guide (+3), License (+2), Contributing Guide (+3), TypeScript (+2), Docker Support (+3), CI/CD Pipeline (+2), Deployment Guide (+3), Kubernetes Support (+3), User Stories (+3), Functional Requirements (+2), Non-Functional Requirements (+3), Architecture Decision Records (ADRs) (+2), Performance Metrics (+2), Future Considerations/Roadmap (+3), Architecture/Flow Diagrams (+3), Charts/Interactive Dashboards (+3), Code Quality Tools (Linting/Formatting) (+3), Accessibility Documentation (+3), Git Best Practices (Multiple Commits) (+3)</t>
+          <t>Troubleshooting Guide (+1), Contributing Guide (+1), Export Functionality (+1), Docker Support (+1), GitHub Actions (+1), Deployment Guide (+1), Cost Analysis (+1), Architecture/Flow Diagrams (+1), Charts/Interactive Dashboards (+1), Code Quality Tools (Linting/Formatting) (+1), Plugin/Extension System (+1), Dual Interface (Multiple Frontends) (+1), Security Scanning (CodeQL) (+1)</t>
         </is>
       </c>
     </row>
@@ -578,17 +578,17 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>38981</t>
+          <t>38950</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>82.57374631268436</v>
+        <v>84.21091445427729</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>100</v>
+        <v>94.21091445427729</v>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
@@ -597,123 +597,123 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>Quick Start Guide (+1), Troubleshooting Guide (+3), License (+2), Contributing Guide (+3), Export Functionality (+3), Docker Support (+3), CI/CD Pipeline (+2), GitHub Actions (+3), Deployment Guide (+3), Cost Analysis (+3), Architecture/Flow Diagrams (+3), Charts/Interactive Dashboards (+3), Code Quality Tools (Linting/Formatting) (+3), Plugin/Extension System (+3), Dual Interface (Multiple Frontends) (+3), Security Scanning (CodeQL) (+3)</t>
+          <t>E2E Tests (+1), Integration Tests (+1), Troubleshooting Guide (+1), Contributing Guide (+1), User Stories (+1), Non-Functional Requirements (+1), Future Considerations/Roadmap (+1), KPIs/Success Metrics (+1), Architecture/Flow Diagrams (+1), Code Quality Tools (Linting/Formatting) (+1)</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>38959</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>75.81120943952801</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>79.81120943952801</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>26/58</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Cost Analysis (+1), Parameter Investigation/Sensitivity Analysis (+1), Results Analysis Notebook (Jupyter) (+1), Architecture/Flow Diagrams (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>38960</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>75.81120943952801</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>79.81120943952801</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>26/58</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>Cost Analysis (+1), Parameter Investigation/Sensitivity Analysis (+1), Results Analysis Notebook (Jupyter) (+1), Architecture/Flow Diagrams (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>38951</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C7" s="6" t="n">
         <v>76.62241887905606</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>94.62241887905606</v>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="D7" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>79.62241887905606</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>26/58</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>Quick Start Guide (+1), Troubleshooting Guide (+3), License (+2), Contributing Guide (+3), TypeScript (+2), Docker Support (+3), CI/CD Pipeline (+2), Performance Metrics (+2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>38959</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>75.81120943952801</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>92.81120943952801</v>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>26/58</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Quick Start Guide (+1), Functional Requirements (+2), Architecture Decision Records (ADRs) (+2), Cost Analysis (+3), Parameter Investigation/Sensitivity Analysis (+3), Results Analysis Notebook (Jupyter) (+3), Architecture/Flow Diagrams (+3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>38960</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>75.81120943952801</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>92.81120943952801</v>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>26/58</t>
-        </is>
-      </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>Quick Start Guide (+1), Functional Requirements (+2), Architecture Decision Records (ADRs) (+2), Cost Analysis (+3), Parameter Investigation/Sensitivity Analysis (+3), Results Analysis Notebook (Jupyter) (+3), Architecture/Flow Diagrams (+3)</t>
+          <t>Troubleshooting Guide (+1), Contributing Guide (+1), Docker Support (+1)</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>38952</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="6" t="n">
         <v>73.76106194690266</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>90.76106194690266</v>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="D8" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>77.76106194690266</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>25/58</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>Quick Start Guide (+1), Troubleshooting Guide (+3), License (+2), Contributing Guide (+3), Export Functionality (+3), User Profiles Feature (+3), Performance Metrics (+2)</t>
+          <t>Troubleshooting Guide (+1), Contributing Guide (+1), Export Functionality (+1), User Profiles Feature (+1)</t>
         </is>
       </c>
     </row>
@@ -730,10 +730,10 @@
         <v>65.7669616519174</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>79.7669616519174</v>
+        <v>69.7669616519174</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Docker Support (+3), User Stories (+3), Functional Requirements (+2), Future Considerations/Roadmap (+3), Model Comparison Research (+3)</t>
+          <t>Docker Support (+1), User Stories (+1), Future Considerations/Roadmap (+1), Model Comparison Research (+1)</t>
         </is>
       </c>
     </row>
@@ -759,10 +759,10 @@
         <v>64.3362831858407</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>74.3362831858407</v>
+        <v>66.3362831858407</v>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>E2E Tests (+3), TypeScript (+2), Architecture Decision Records (ADRs) (+2), Code Quality Tools (Linting/Formatting) (+3)</t>
+          <t>E2E Tests (+1), Code Quality Tools (Linting/Formatting) (+1)</t>
         </is>
       </c>
     </row>
@@ -781,17 +781,17 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>38988</t>
+          <t>59378</t>
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>59.61651917404129</v>
+        <v>59.62389380530973</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>72.61651917404129</v>
+        <v>62.62389380530973</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>TypeScript (+2), Docker Support (+3), CI/CD Pipeline (+2), GitHub Actions (+3), Model Comparison Research (+3)</t>
+          <t>GitHub Actions (+1), Dual Interface (Multiple Frontends) (+1), Security Scanning (CodeQL) (+1)</t>
         </is>
       </c>
     </row>
@@ -810,17 +810,17 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>59378</t>
+          <t>38988</t>
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>59.62389380530973</v>
+        <v>59.61651917404129</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>70.62389380530973</v>
+        <v>62.61651917404129</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>CI/CD Pipeline (+2), GitHub Actions (+3), Dual Interface (Multiple Frontends) (+3), Security Scanning (CodeQL) (+3)</t>
+          <t>Docker Support (+1), GitHub Actions (+1), Model Comparison Research (+1)</t>
         </is>
       </c>
     </row>
@@ -839,17 +839,17 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>38979</t>
+          <t>38993</t>
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>39.34365781710915</v>
+        <v>57.57374631268437</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>66.34365781710915</v>
+        <v>58.57374631268437</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Deployment Guide (+3), User Stories (+3), Functional Requirements (+2), Architecture Decision Records (ADRs) (+2), Performance Metrics (+2), Cost Analysis (+3), KPIs/Success Metrics (+3), Model Comparison Research (+3), Accessibility Documentation (+3), Plugin/Extension System (+3)</t>
+          <t>Accessibility Documentation (+1)</t>
         </is>
       </c>
     </row>
@@ -868,26 +868,26 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>38993</t>
+          <t>59375</t>
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>57.57374631268437</v>
+        <v>53.67256637168142</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>62.57374631268437</v>
+        <v>54.67256637168142</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>16/58</t>
+          <t>14/58</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>TypeScript (+2), Accessibility Documentation (+3)</t>
+          <t>Parameter Investigation/Sensitivity Analysis (+1)</t>
         </is>
       </c>
     </row>
@@ -897,26 +897,26 @@
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>59375</t>
+          <t>59373</t>
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53.67256637168142</v>
+        <v>48.96755162241888</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>57.67256637168142</v>
+        <v>50.96755162241888</v>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>14/58</t>
+          <t>15/58</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Quick Start Guide (+1), Parameter Investigation/Sensitivity Analysis (+3)</t>
+          <t>Export Functionality (+1), User Profiles Feature (+1)</t>
         </is>
       </c>
     </row>
@@ -926,26 +926,26 @@
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>59373</t>
+          <t>38963</t>
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>48.96755162241888</v>
+        <v>49.99262536873157</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>56.96755162241888</v>
+        <v>49.99262536873157</v>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>15/58</t>
+          <t>13/58</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>License (+2), Export Functionality (+3), User Profiles Feature (+3)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -955,26 +955,26 @@
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>38980</t>
+          <t>38979</t>
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>36.6740412979351</v>
+        <v>39.34365781710915</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>55.6740412979351</v>
+        <v>46.34365781710915</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>13/58</t>
+          <t>16/58</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Deployment Guide (+3), Architecture Decision Records (ADRs) (+2), Performance Metrics (+2), Cost Analysis (+3), Model Comparison Research (+3), Accessibility Documentation (+3), Voice Input Support (+3)</t>
+          <t>Deployment Guide (+1), User Stories (+1), Cost Analysis (+1), KPIs/Success Metrics (+1), Model Comparison Research (+1), Accessibility Documentation (+1), Plugin/Extension System (+1)</t>
         </is>
       </c>
     </row>
@@ -984,17 +984,17 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>38963</t>
+          <t>38980</t>
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>49.99262536873157</v>
+        <v>36.6740412979351</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>49.99262536873157</v>
+        <v>41.6740412979351</v>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Deployment Guide (+1), Cost Analysis (+1), Model Comparison Research (+1), Accessibility Documentation (+1), Voice Input Support (+1)</t>
         </is>
       </c>
     </row>
@@ -1013,26 +1013,26 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>38989</t>
+          <t>38962</t>
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>34.41002949852508</v>
+        <v>37.69911504424779</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>38.41002949852508</v>
+        <v>37.69911504424779</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>9/58</t>
+          <t>8/58</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>TypeScript (+2), CI/CD Pipeline (+2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>38962</t>
+          <t>38954</t>
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>37.69911504424779</v>
+        <v>36.46755162241888</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>37.69911504424779</v>
+        <v>36.46755162241888</v>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
@@ -1071,21 +1071,21 @@
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>38954</t>
+          <t>38989</t>
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>36.46755162241888</v>
+        <v>34.41002949852508</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>36.46755162241888</v>
+        <v>34.41002949852508</v>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>8/58</t>
+          <t>9/58</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
@@ -1129,26 +1129,26 @@
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>59376</t>
+          <t>38955</t>
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30.12536873156342</v>
+        <v>32.98672566371681</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>33.12536873156342</v>
+        <v>32.98672566371681</v>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>8/58</t>
+          <t>7/58</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>File Upload Support (+3)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1158,17 +1158,17 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>38955</t>
+          <t>38990</t>
         </is>
       </c>
       <c r="C24" s="6" t="n">
-        <v>32.98672566371681</v>
+        <v>31.96165191740413</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>32.98672566371681</v>
+        <v>31.96165191740413</v>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
@@ -1187,26 +1187,26 @@
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>38990</t>
+          <t>59376</t>
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>31.96165191740413</v>
+        <v>30.12536873156342</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>31.96165191740413</v>
+        <v>31.12536873156342</v>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>7/58</t>
+          <t>8/58</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>File Upload Support (+1)</t>
         </is>
       </c>
     </row>
@@ -1274,26 +1274,26 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>38957</t>
+          <t>38966</t>
         </is>
       </c>
       <c r="C28" s="6" t="n">
-        <v>23.55457227138643</v>
+        <v>24.58702064896755</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>26.55457227138643</v>
+        <v>24.58702064896755</v>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>5/58</t>
+          <t>4/58</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Git Best Practices (Multiple Commits) (+3)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1303,17 +1303,17 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>38971</t>
+          <t>38957</t>
         </is>
       </c>
       <c r="C29" s="6" t="n">
         <v>23.55457227138643</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>26.55457227138643</v>
+        <v>24.55457227138643</v>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Multi-Agent Orchestration (+3)</t>
+          <t>Git Best Practices (Multiple Commits) (+1)</t>
         </is>
       </c>
     </row>
@@ -1332,17 +1332,17 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>38973</t>
+          <t>38971</t>
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>21.92477876106195</v>
+        <v>23.55457227138643</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>24.92477876106195</v>
+        <v>24.55457227138643</v>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Multi-Agent Orchestration (+3)</t>
+          <t>Multi-Agent Orchestration (+1)</t>
         </is>
       </c>
     </row>
@@ -1361,26 +1361,26 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>38966</t>
+          <t>38973</t>
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>24.58702064896755</v>
+        <v>21.92477876106195</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>24.58702064896755</v>
+        <v>22.92477876106195</v>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>4/58</t>
+          <t>5/58</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Multi-Agent Orchestration (+1)</t>
         </is>
       </c>
     </row>
@@ -1390,17 +1390,17 @@
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>38961</t>
+          <t>38958</t>
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>19.25516224188791</v>
+        <v>20.48672566371681</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>22.25516224188791</v>
+        <v>20.48672566371681</v>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Git Best Practices (Multiple Commits) (+3)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t>38958</t>
+          <t>38964</t>
         </is>
       </c>
       <c r="C33" s="6" t="n">
@@ -1448,17 +1448,17 @@
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>38964</t>
+          <t>38961</t>
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>20.48672566371681</v>
+        <v>19.25516224188791</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>20.48672566371681</v>
+        <v>20.25516224188791</v>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Git Best Practices (Multiple Commits) (+1)</t>
         </is>
       </c>
     </row>
@@ -1506,26 +1506,26 @@
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>38985</t>
+          <t>38986</t>
         </is>
       </c>
       <c r="C36" s="6" t="n">
-        <v>8.399705014749262</v>
+        <v>13.31858407079646</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>14.39970501474926</v>
+        <v>13.31858407079646</v>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>3/58</t>
+          <t>2/58</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>Integration Tests (+3), Multi-Agent Orchestration (+3)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1535,26 +1535,26 @@
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>38986</t>
+          <t>38985</t>
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>13.31858407079646</v>
+        <v>8.399705014749262</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>13.31858407079646</v>
+        <v>10.39970501474926</v>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>2/58</t>
+          <t>3/58</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Integration Tests (+1), Multi-Agent Orchestration (+1)</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C15" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D15" s="8" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C17" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D17" s="8" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="C19" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D19" s="8" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C21" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C25" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C27" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
@@ -2234,166 +2234,12 @@
       </c>
       <c r="C30" s="8" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
           <t>38950, 38959, 38960, 38970, 38981</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>License</t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>16.7%</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38951, 38952, 38970, 38981, 59373</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>Functional Requirements</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>16.7%</t>
-        </is>
-      </c>
-      <c r="C32" s="8" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38953, 38959, 38960, 38970, 38979</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>Architecture Decision Records (ADRs)</t>
-        </is>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>16.7%</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="inlineStr">
-        <is>
-          <t>38959, 38960, 38970, 38979, 38980, 38982</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>Performance Metrics</t>
-        </is>
-      </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>16.7%</t>
-        </is>
-      </c>
-      <c r="C34" s="8" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="D34" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38951, 38952, 38970, 38979, 38980</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>TypeScript</t>
-        </is>
-      </c>
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t>19.4%</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="D35" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38951, 38970, 38982, 38988, 38989, 38993</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>CI/CD Pipeline</t>
-        </is>
-      </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>19.4%</t>
-        </is>
-      </c>
-      <c r="C36" s="8" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="D36" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38951, 38970, 38981, 38988, 38989, 59378</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="8" t="inlineStr">
-        <is>
-          <t>Quick Start Guide</t>
-        </is>
-      </c>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>22.2%</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38951, 38952, 38959, 38960, 38970, 38981, 59375</t>
         </is>
       </c>
     </row>

--- a/outputs/grades.xlsx
+++ b/outputs/grades.xlsx
@@ -72,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -93,7 +93,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -520,26 +519,26 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>38970</t>
+          <t>38954</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>90.56047197640117</v>
+        <v>98.73150105708244</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>100</v>
+        <v>98.73150105708244</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>41/58</t>
+          <t>18/19</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>E2E Tests (+1), Troubleshooting Guide (+1), Contributing Guide (+1), Docker Support (+1), Deployment Guide (+1), Kubernetes Support (+1), User Stories (+1), Non-Functional Requirements (+1), Future Considerations/Roadmap (+1), Architecture/Flow Diagrams (+1), Charts/Interactive Dashboards (+1), Code Quality Tools (Linting/Formatting) (+1), Accessibility Documentation (+1), Git Best Practices (Multiple Commits) (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -549,26 +548,26 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>38981</t>
+          <t>38964</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>82.57374631268436</v>
+        <v>98.73150105708244</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>95.57374631268436</v>
+        <v>98.73150105708244</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>35/58</t>
+          <t>18/19</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>Troubleshooting Guide (+1), Contributing Guide (+1), Export Functionality (+1), Docker Support (+1), GitHub Actions (+1), Deployment Guide (+1), Cost Analysis (+1), Architecture/Flow Diagrams (+1), Charts/Interactive Dashboards (+1), Code Quality Tools (Linting/Formatting) (+1), Plugin/Extension System (+1), Dual Interface (Multiple Frontends) (+1), Security Scanning (CodeQL) (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -578,369 +577,369 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>38950</t>
+          <t>38981</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>84.21091445427729</v>
+        <v>97.46300211416489</v>
       </c>
       <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>97.46300211416489</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17/19</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>59378</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>97.46300211416489</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>97.46300211416489</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17/19</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>38962</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>95.9830866807611</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>95.9830866807611</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16/19</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>38977</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>95.9830866807611</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>95.9830866807611</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16/19</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>38979</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>95.9830866807611</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>95.9830866807611</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17/19</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>38980</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>95.9830866807611</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>95.9830866807611</v>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17/19</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>38960</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>93.65750528541226</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>93.65750528541226</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17/19</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>94.21091445427729</v>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>35/58</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>E2E Tests (+1), Integration Tests (+1), Troubleshooting Guide (+1), Contributing Guide (+1), User Stories (+1), Non-Functional Requirements (+1), Future Considerations/Roadmap (+1), KPIs/Success Metrics (+1), Architecture/Flow Diagrams (+1), Code Quality Tools (Linting/Formatting) (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>38959</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>75.81120943952801</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>79.81120943952801</v>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>26/58</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>Cost Analysis (+1), Parameter Investigation/Sensitivity Analysis (+1), Results Analysis Notebook (Jupyter) (+1), Architecture/Flow Diagrams (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>38960</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>75.81120943952801</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>79.81120943952801</v>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>26/58</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Cost Analysis (+1), Parameter Investigation/Sensitivity Analysis (+1), Results Analysis Notebook (Jupyter) (+1), Architecture/Flow Diagrams (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>38970</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>93.65750528541226</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>93.65750528541226</v>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17/19</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>38951</t>
         </is>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>76.62241887905606</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>79.62241887905606</v>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>26/58</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Troubleshooting Guide (+1), Contributing Guide (+1), Docker Support (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C12" s="3" t="n">
+        <v>92.60042283298097</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>92.60042283298097</v>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16/19</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>38952</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>73.76106194690266</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>77.76106194690266</v>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>25/58</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>Troubleshooting Guide (+1), Contributing Guide (+1), Export Functionality (+1), User Profiles Feature (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>38953</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>65.7669616519174</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>69.7669616519174</v>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>21/58</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>Docker Support (+1), User Stories (+1), Future Considerations/Roadmap (+1), Model Comparison Research (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>38982</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>64.3362831858407</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>66.3362831858407</v>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>20/58</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>E2E Tests (+1), Code Quality Tools (Linting/Formatting) (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>59378</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>59.62389380530973</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>62.62389380530973</v>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>19/58</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>GitHub Actions (+1), Dual Interface (Multiple Frontends) (+1), Security Scanning (CodeQL) (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>38988</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>59.61651917404129</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>62.61651917404129</v>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>19/58</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>Docker Support (+1), GitHub Actions (+1), Model Comparison Research (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>38993</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>57.57374631268437</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>58.57374631268437</v>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>16/58</t>
+      <c r="C13" s="3" t="n">
+        <v>92.38900634249472</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>92.38900634249472</v>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16/19</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Accessibility Documentation (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>59375</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>53.67256637168142</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>54.67256637168142</v>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>14/58</t>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>59373</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>92.38900634249472</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>92.38900634249472</v>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16/19</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>Parameter Investigation/Sensitivity Analysis (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>59373</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>48.96755162241888</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>50.96755162241888</v>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>15/58</t>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>38986</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>92.17758985200845</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>92.17758985200845</v>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15/19</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Export Functionality (+1), User Profiles Feature (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>38963</t>
-        </is>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>49.99262536873157</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>49.99262536873157</v>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>13/58</t>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>38992</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>92.17758985200845</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>92.17758985200845</v>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15/19</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
@@ -955,26 +954,26 @@
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>38979</t>
+          <t>38959</t>
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>39.34365781710915</v>
+        <v>89.64059196617336</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>46.34365781710915</v>
+        <v>89.64059196617336</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>16/58</t>
+          <t>14/19</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Deployment Guide (+1), User Stories (+1), Cost Analysis (+1), KPIs/Success Metrics (+1), Model Comparison Research (+1), Accessibility Documentation (+1), Plugin/Extension System (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -984,26 +983,26 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>38980</t>
+          <t>59375</t>
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>36.6740412979351</v>
+        <v>89.64059196617336</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>41.6740412979351</v>
+        <v>89.64059196617336</v>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>13/58</t>
+          <t>14/19</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>Deployment Guide (+1), Cost Analysis (+1), Model Comparison Research (+1), Accessibility Documentation (+1), Voice Input Support (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1013,21 +1012,21 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>38962</t>
+          <t>38950</t>
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37.69911504424779</v>
+        <v>89.00634249471459</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37.69911504424779</v>
+        <v>89.00634249471459</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>8/58</t>
+          <t>14/19</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -1042,21 +1041,21 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>38954</t>
+          <t>38958</t>
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>36.46755162241888</v>
+        <v>89.00634249471459</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>36.46755162241888</v>
+        <v>89.00634249471459</v>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>8/58</t>
+          <t>14/19</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
@@ -1071,21 +1070,21 @@
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>38989</t>
+          <t>38953</t>
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>34.41002949852508</v>
+        <v>88.16067653276954</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>34.41002949852508</v>
+        <v>88.16067653276954</v>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>9/58</t>
+          <t>14/19</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
@@ -1100,21 +1099,21 @@
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>38984</t>
+          <t>38988</t>
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>34.21828908554572</v>
+        <v>88.16067653276954</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>34.21828908554572</v>
+        <v>88.16067653276954</v>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>8/58</t>
+          <t>14/19</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
@@ -1129,21 +1128,21 @@
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>38955</t>
+          <t>38989</t>
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32.98672566371681</v>
+        <v>88.16067653276954</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>32.98672566371681</v>
+        <v>88.16067653276954</v>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>7/58</t>
+          <t>14/19</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
@@ -1158,21 +1157,21 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>38990</t>
+          <t>38955</t>
         </is>
       </c>
       <c r="C24" s="6" t="n">
-        <v>31.96165191740413</v>
+        <v>86.89217758985201</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>31.96165191740413</v>
+        <v>86.89217758985201</v>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>7/58</t>
+          <t>14/19</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
@@ -1187,26 +1186,26 @@
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>59376</t>
+          <t>38963</t>
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>30.12536873156342</v>
+        <v>85.20084566596195</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>31.12536873156342</v>
+        <v>85.20084566596195</v>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>8/58</t>
+          <t>13/19</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>File Upload Support (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1216,21 +1215,21 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>38977</t>
+          <t>38966</t>
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>30.523598820059</v>
+        <v>73.99577167019027</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>30.523598820059</v>
+        <v>73.99577167019027</v>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>7/58</t>
+          <t>11/19</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
@@ -1245,21 +1244,21 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>38969</t>
+          <t>38985</t>
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>29.9188790560472</v>
+        <v>73.99577167019027</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>29.9188790560472</v>
+        <v>73.99577167019027</v>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>7/58</t>
+          <t>11/19</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
@@ -1274,21 +1273,21 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>38966</t>
+          <t>38984</t>
         </is>
       </c>
       <c r="C28" s="6" t="n">
-        <v>24.58702064896755</v>
+        <v>69.76744186046511</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>24.58702064896755</v>
+        <v>69.76744186046511</v>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>4/58</t>
+          <t>10/19</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
@@ -1303,26 +1302,26 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>38957</t>
+          <t>38990</t>
         </is>
       </c>
       <c r="C29" s="6" t="n">
-        <v>23.55457227138643</v>
+        <v>69.76744186046511</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>24.55457227138643</v>
+        <v>69.76744186046511</v>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>5/58</t>
+          <t>10/19</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Git Best Practices (Multiple Commits) (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1332,26 +1331,26 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>38971</t>
+          <t>38969</t>
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>23.55457227138643</v>
+        <v>69.13319238900633</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>24.55457227138643</v>
+        <v>69.13319238900633</v>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>5/58</t>
+          <t>10/19</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Multi-Agent Orchestration (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1361,26 +1360,26 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>38973</t>
+          <t>59376</t>
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>21.92477876106195</v>
+        <v>69.13319238900633</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>22.92477876106195</v>
+        <v>69.13319238900633</v>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>5/58</t>
+          <t>10/19</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Multi-Agent Orchestration (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1390,21 +1389,21 @@
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>38958</t>
+          <t>38971</t>
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>20.48672566371681</v>
+        <v>66.17336152219873</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>20.48672566371681</v>
+        <v>66.17336152219873</v>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>4/58</t>
+          <t>10/19</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
@@ -1419,21 +1418,21 @@
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t>38964</t>
+          <t>38973</t>
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>20.48672566371681</v>
+        <v>66.17336152219873</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>20.48672566371681</v>
+        <v>66.17336152219873</v>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>4/58</t>
+          <t>10/19</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
@@ -1448,26 +1447,26 @@
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>38961</t>
+          <t>38982</t>
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>19.25516224188791</v>
+        <v>56.2367864693446</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>20.25516224188791</v>
+        <v>56.2367864693446</v>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>4/58</t>
+          <t>8/19</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>Git Best Practices (Multiple Commits) (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1477,21 +1476,21 @@
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>38992</t>
+          <t>38993</t>
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>17.4188790560472</v>
+        <v>56.2367864693446</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>17.4188790560472</v>
+        <v>56.2367864693446</v>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>3/58</t>
+          <t>8/19</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
@@ -1506,21 +1505,21 @@
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>38986</t>
+          <t>38957</t>
         </is>
       </c>
       <c r="C36" s="6" t="n">
-        <v>13.31858407079646</v>
+        <v>7.610993657505285</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>13.31858407079646</v>
+        <v>7.610993657505285</v>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>2/58</t>
+          <t>1/19</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
@@ -1535,26 +1534,26 @@
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>38985</t>
+          <t>38961</t>
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>8.399705014749262</v>
+        <v>7.610993657505285</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>10.39970501474926</v>
+        <v>7.610993657505285</v>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>3/58</t>
+          <t>1/19</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Integration Tests (+1), Multi-Agent Orchestration (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,644 +1604,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Kubernetes Support</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>38970</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Voice Input Support</t>
-        </is>
-      </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>38980</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>File Upload Support</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>59376</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Integration Tests</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38985</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>User Profiles Feature</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>38952, 59373</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Non-Functional Requirements</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38970</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>KPIs/Success Metrics</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38979</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Results Analysis Notebook (Jupyter)</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>38959, 38960</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Charts/Interactive Dashboards</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>38970, 38981</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Plugin/Extension System</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>38979, 38981</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>Dual Interface (Multiple Frontends)</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>38981, 59378</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Security Scanning (CodeQL)</t>
-        </is>
-      </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>38981, 59378</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>E2E Tests</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>8.3%</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38970, 38982</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Export Functionality</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>8.3%</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>38952, 38981, 59373</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>GitHub Actions</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>8.3%</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>38981, 38988, 59378</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>Future Considerations/Roadmap</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>8.3%</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38953, 38970</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>Parameter Investigation/Sensitivity Analysis</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>8.3%</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>38959, 38960, 59375</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Git Best Practices (Multiple Commits)</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>8.3%</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D19" s="8" t="inlineStr">
-        <is>
-          <t>38957, 38961, 38970</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>Multi-Agent Orchestration</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>8.3%</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>38971, 38973, 38985</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>Deployment Guide</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>11.1%</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>38970, 38979, 38980, 38981</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
-        <is>
-          <t>User Stories</t>
-        </is>
-      </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>11.1%</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38953, 38970, 38979</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>Model Comparison Research</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>11.1%</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="inlineStr">
-        <is>
-          <t>38953, 38979, 38980, 38988</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
-          <t>Code Quality Tools (Linting/Formatting)</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>11.1%</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38970, 38981, 38982</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Accessibility Documentation</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>11.1%</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>38970, 38979, 38980, 38993</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>Troubleshooting Guide</t>
-        </is>
-      </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>13.9%</t>
-        </is>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38951, 38952, 38970, 38981</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>Contributing Guide</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>13.9%</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38951, 38952, 38970, 38981</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>Docker Support</t>
-        </is>
-      </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>13.9%</t>
-        </is>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>38951, 38953, 38970, 38981, 38988</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>Cost Analysis</t>
-        </is>
-      </c>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>13.9%</t>
-        </is>
-      </c>
-      <c r="C29" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="inlineStr">
-        <is>
-          <t>38959, 38960, 38979, 38980, 38981</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>Architecture/Flow Diagrams</t>
-        </is>
-      </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>13.9%</t>
-        </is>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="inlineStr">
-        <is>
-          <t>38950, 38959, 38960, 38970, 38981</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/grades.xlsx
+++ b/outputs/grades.xlsx
@@ -72,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -93,6 +93,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -523,22 +524,22 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>98.73150105708244</v>
+        <v>91.77683696527363</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>98.73150105708244</v>
+        <v>92.77683696527363</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>18/19</t>
+          <t>70/88</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>API Gateway (+1)</t>
         </is>
       </c>
     </row>
@@ -552,399 +553,399 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>98.73150105708244</v>
+        <v>91.77683696527363</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>98.73150105708244</v>
+        <v>92.77683696527363</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>18/19</t>
+          <t>70/88</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>API Gateway (+1)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>38953</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>88.81068024207164</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>89.81068024207164</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>66/88</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>Shadcn UI (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>38988</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>87.22370847510454</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>88.22370847510454</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>65/88</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Shadcn UI (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>38989</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>87.22370847510454</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>88.22370847510454</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>65/88</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>Shadcn UI (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>38979</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>85.56920599464949</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>86.56920599464949</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>62/88</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>PDF Support (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>38981</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>97.46300211416489</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>97.46300211416489</v>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>17/19</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="C8" s="6" t="n">
+        <v>80.30440767772265</v>
+      </c>
+      <c r="D8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="E8" s="6" t="n">
+        <v>84.30440767772265</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>60/88</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>Mathematical Analysis (+1), Contributing Guide (+1), Black Formatter (+1), Test Automation (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>59378</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>97.46300211416489</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>97.46300211416489</v>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>17/19</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>38962</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>95.9830866807611</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>95.9830866807611</v>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>16/19</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>38977</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>95.9830866807611</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>95.9830866807611</v>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>16/19</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>38979</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>95.9830866807611</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>95.9830866807611</v>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>17/19</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="C9" s="6" t="n">
+        <v>80.30440767772265</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>84.30440767772265</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>60/88</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>Mathematical Analysis (+1), Contributing Guide (+1), Black Formatter (+1), Test Automation (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>38980</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>95.9830866807611</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>95.9830866807611</v>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>17/19</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="C10" s="6" t="n">
+        <v>81.88878210955561</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>82.88878210955561</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>60/88</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>PDF Support (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>38960</t>
         </is>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>93.65750528541226</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>93.65750528541226</v>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>17/19</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="C11" s="6" t="n">
+        <v>79.29144697540323</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>82.29144697540323</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>57/88</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>Mathematical Analysis (+1), Contributing Guide (+1), Heroku Deployment (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>38970</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>93.65750528541226</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>93.65750528541226</v>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>17/19</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>38951</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>92.60042283298097</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>92.60042283298097</v>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>16/19</t>
+      <c r="C12" s="6" t="n">
+        <v>77.70447520843615</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>80.70447520843615</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>56/88</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mathematical Analysis (+1), Contributing Guide (+1), Heroku Deployment (+1)</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>38959</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>70.85010778940807</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>71.85010778940807</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>47/88</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Black Formatter (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>59375</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>69.47871483857563</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>70.47871483857563</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>46/88</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>Black Formatter (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>38952</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>92.38900634249472</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>92.38900634249472</v>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>16/19</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="C15" s="6" t="n">
+        <v>67.09695852055791</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>69.09695852055791</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>47/88</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Contributing Guide (+1), Multi-Session Support (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>59373</t>
         </is>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>92.38900634249472</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>92.38900634249472</v>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>16/19</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>38986</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>92.17758985200845</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>92.17758985200845</v>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>15/19</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>38992</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>92.17758985200845</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>92.17758985200845</v>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>15/19</t>
+      <c r="C16" s="6" t="n">
+        <v>65.14895716994363</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>66.14895716994363</v>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>45/88</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Multi-Session Support (+1)</t>
         </is>
       </c>
     </row>
@@ -954,21 +955,21 @@
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>38959</t>
+          <t>38950</t>
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>89.64059196617336</v>
+        <v>63.27108386795148</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>89.64059196617336</v>
+        <v>63.27108386795148</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>14/19</t>
+          <t>42/88</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
@@ -983,21 +984,21 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>59375</t>
+          <t>38958</t>
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>89.64059196617336</v>
+        <v>60.74647411755539</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>89.64059196617336</v>
+        <v>60.74647411755539</v>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>14/19</t>
+          <t>40/88</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
@@ -1012,26 +1013,26 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>38950</t>
+          <t>38963</t>
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>89.00634249471459</v>
+        <v>53.75185060128309</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>89.00634249471459</v>
+        <v>54.75185060128309</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>14/19</t>
+          <t>33/88</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Multi-Session Support (+1)</t>
         </is>
       </c>
     </row>
@@ -1041,26 +1042,26 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>38958</t>
+          <t>38951</t>
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>89.00634249471459</v>
+        <v>52.30773226669437</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>89.00634249471459</v>
+        <v>53.30773226669437</v>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>14/19</t>
+          <t>33/88</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mathematical Analysis (+1)</t>
         </is>
       </c>
     </row>
@@ -1070,21 +1071,21 @@
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>38953</t>
+          <t>38955</t>
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>88.16067653276954</v>
+        <v>52.08955611542557</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>88.16067653276954</v>
+        <v>52.08955611542557</v>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>14/19</t>
+          <t>29/88</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
@@ -1099,26 +1100,26 @@
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>38988</t>
+          <t>38986</t>
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>88.16067653276954</v>
+        <v>49.78312251629828</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>88.16067653276954</v>
+        <v>51.78312251629828</v>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>14/19</t>
+          <t>30/88</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Multi-Session Support (+1), Image Analysis (+1)</t>
         </is>
       </c>
     </row>
@@ -1128,26 +1129,26 @@
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>38989</t>
+          <t>38992</t>
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>88.16067653276954</v>
+        <v>49.78312251629828</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>88.16067653276954</v>
+        <v>51.78312251629828</v>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>14/19</t>
+          <t>30/88</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Multi-Session Support (+1), Image Analysis (+1)</t>
         </is>
       </c>
     </row>
@@ -1157,21 +1158,21 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>38955</t>
+          <t>38962</t>
         </is>
       </c>
       <c r="C24" s="6" t="n">
-        <v>86.89217758985201</v>
+        <v>51.51814238591206</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>86.89217758985201</v>
+        <v>51.51814238591206</v>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>14/19</t>
+          <t>31/88</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
@@ -1186,21 +1187,21 @@
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>38963</t>
+          <t>38977</t>
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>85.20084566596195</v>
+        <v>50.58050440248305</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>85.20084566596195</v>
+        <v>50.58050440248305</v>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>13/19</t>
+          <t>30/88</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
@@ -1215,21 +1216,21 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>38966</t>
+          <t>38984</t>
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>73.99577167019027</v>
+        <v>46.67670969585206</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>73.99577167019027</v>
+        <v>46.67670969585206</v>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>11/19</t>
+          <t>25/88</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
@@ -1244,21 +1245,21 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>38985</t>
+          <t>38990</t>
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>73.99577167019027</v>
+        <v>44.15209994545597</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>73.99577167019027</v>
+        <v>44.15209994545597</v>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>11/19</t>
+          <t>23/88</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
@@ -1273,21 +1274,21 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>38984</t>
+          <t>38971</t>
         </is>
       </c>
       <c r="C28" s="6" t="n">
-        <v>69.76744186046511</v>
+        <v>42.78070699462352</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>69.76744186046511</v>
+        <v>42.78070699462352</v>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>10/19</t>
+          <t>22/88</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
@@ -1302,21 +1303,21 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>38990</t>
+          <t>38969</t>
         </is>
       </c>
       <c r="C29" s="6" t="n">
-        <v>69.76744186046511</v>
+        <v>42.20929326511001</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>69.76744186046511</v>
+        <v>42.20929326511001</v>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>10/19</t>
+          <t>22/88</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
@@ -1331,21 +1332,21 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>38969</t>
+          <t>59376</t>
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>69.13319238900633</v>
+        <v>40.62232149814291</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>69.13319238900633</v>
+        <v>40.62232149814291</v>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>10/19</t>
+          <t>21/88</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
@@ -1360,21 +1361,21 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>59376</t>
+          <t>38982</t>
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>69.13319238900633</v>
+        <v>39.25092854731046</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>69.13319238900633</v>
+        <v>39.25092854731046</v>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>10/19</t>
+          <t>22/88</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
@@ -1389,21 +1390,21 @@
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>38971</t>
+          <t>38993</t>
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>66.17336152219873</v>
+        <v>39.25092854731046</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>66.17336152219873</v>
+        <v>39.25092854731046</v>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>10/19</t>
+          <t>22/88</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
@@ -1422,17 +1423,17 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>66.17336152219873</v>
+        <v>38.30809589361316</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>66.17336152219873</v>
+        <v>38.30809589361316</v>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>10/19</t>
+          <t>19/88</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
@@ -1447,21 +1448,21 @@
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>38982</t>
+          <t>38966</t>
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>56.2367864693446</v>
+        <v>28.2849796109192</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>56.2367864693446</v>
+        <v>28.2849796109192</v>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>8/19</t>
+          <t>14/88</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
@@ -1476,21 +1477,21 @@
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>38993</t>
+          <t>38985</t>
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>56.2367864693446</v>
+        <v>26.69800784395211</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>56.2367864693446</v>
+        <v>26.69800784395211</v>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>8/19</t>
+          <t>13/88</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
@@ -1505,21 +1506,21 @@
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>38957</t>
+          <t>38961</t>
         </is>
       </c>
       <c r="C36" s="6" t="n">
-        <v>7.610993657505285</v>
+        <v>11.61528271992935</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>7.610993657505285</v>
+        <v>11.61528271992935</v>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>1/19</t>
+          <t>5/88</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
@@ -1534,21 +1535,21 @@
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>38961</t>
+          <t>38957</t>
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>7.610993657505285</v>
+        <v>10.38934053660944</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>7.610993657505285</v>
+        <v>10.38934053660944</v>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>1/19</t>
+          <t>4/88</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
@@ -1568,7 +1569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1604,6 +1605,226 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>API Gateway</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>38954, 38964</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Heroku Deployment</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>38960, 38970</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>PDF Support</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>38979, 38980</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Test Automation</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>38981, 59378</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Image Analysis</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>38986, 38992</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Shadcn UI</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>8.3%</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>38953, 38988, 38989</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>Black Formatter</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>11.1%</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>38959, 38981, 59375, 59378</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Mathematical Analysis</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>13.9%</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>38951, 38960, 38970, 38981, 59378</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>Contributing Guide</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>13.9%</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>38952, 38960, 38970, 38981, 59378</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>Multi-Session Support</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>13.9%</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>38952, 38963, 38986, 38992, 59373</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/grades.xlsx
+++ b/outputs/grades.xlsx
@@ -524,17 +524,17 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>91.77683696527363</v>
+        <v>94.70588235294117</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>92.77683696527363</v>
+        <v>95.70588235294117</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>70/88</t>
+          <t>56/65</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -553,17 +553,17 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>91.77683696527363</v>
+        <v>94.70588235294117</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>92.77683696527363</v>
+        <v>95.70588235294117</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>70/88</t>
+          <t>56/65</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -573,147 +573,147 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>38979</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>92.26890756302521</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>93.26890756302521</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>51/65</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>PDF Support (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>38981</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>89.41176470588236</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>92.41176470588236</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52/65</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Mathematical Analysis (+1), Contributing Guide (+1), Test Automation (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>59378</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>89.41176470588236</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>92.41176470588236</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>52/65</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>Mathematical Analysis (+1), Contributing Guide (+1), Test Automation (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>38980</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>90.4201680672269</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>91.4201680672269</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50/65</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>PDF Support (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>38953</t>
         </is>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>88.81068024207164</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>89.81068024207164</v>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>66/88</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>Shadcn UI (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>38988</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>87.22370847510454</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>88.22370847510454</v>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>65/88</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>Shadcn UI (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>38989</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>87.22370847510454</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>88.22370847510454</v>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>65/88</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Shadcn UI (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>38979</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>85.56920599464949</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>86.56920599464949</v>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>62/88</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>PDF Support (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>38981</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>80.30440767772265</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>84.30440767772265</v>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>60/88</t>
+      <c r="C8" s="3" t="n">
+        <v>90.25210084033613</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>90.25210084033613</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>49/65</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>Mathematical Analysis (+1), Contributing Guide (+1), Black Formatter (+1), Test Automation (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -723,26 +723,26 @@
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>59378</t>
+          <t>38988</t>
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>80.30440767772265</v>
+        <v>88.40336134453781</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>84.30440767772265</v>
+        <v>88.40336134453781</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>60/88</t>
+          <t>48/65</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Mathematical Analysis (+1), Contributing Guide (+1), Black Formatter (+1), Test Automation (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -752,26 +752,26 @@
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>38980</t>
+          <t>38989</t>
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>81.88878210955561</v>
+        <v>88.40336134453781</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>82.88878210955561</v>
+        <v>88.40336134453781</v>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>60/88</t>
+          <t>48/65</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>PDF Support (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -785,22 +785,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>79.29144697540323</v>
+        <v>84.70588235294117</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>82.29144697540323</v>
+        <v>86.70588235294117</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>57/88</t>
+          <t>47/65</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>Mathematical Analysis (+1), Contributing Guide (+1), Heroku Deployment (+1)</t>
+          <t>Mathematical Analysis (+1), Contributing Guide (+1)</t>
         </is>
       </c>
     </row>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>77.70447520843615</v>
+        <v>82.85714285714285</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>80.70447520843615</v>
+        <v>84.85714285714285</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>56/88</t>
+          <t>46/65</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>Mathematical Analysis (+1), Contributing Guide (+1), Heroku Deployment (+1)</t>
+          <t>Mathematical Analysis (+1), Contributing Guide (+1)</t>
         </is>
       </c>
     </row>
@@ -839,26 +839,26 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>38959</t>
+          <t>38952</t>
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>70.85010778940807</v>
+        <v>75.12605042016806</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>71.85010778940807</v>
+        <v>77.12605042016806</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>47/88</t>
+          <t>40/65</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Black Formatter (+1)</t>
+          <t>Contributing Guide (+1), Multi-Session Support (+1)</t>
         </is>
       </c>
     </row>
@@ -868,26 +868,26 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>59375</t>
+          <t>38959</t>
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>69.47871483857563</v>
+        <v>76.63865546218487</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>70.47871483857563</v>
+        <v>76.63865546218487</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>46/88</t>
+          <t>38/65</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>Black Formatter (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -897,26 +897,26 @@
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>38952</t>
+          <t>59375</t>
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>67.09695852055791</v>
+        <v>75.04201680672269</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>69.09695852055791</v>
+        <v>75.04201680672269</v>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>47/88</t>
+          <t>37/65</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Contributing Guide (+1), Multi-Session Support (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -930,17 +930,17 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>65.14895716994363</v>
+        <v>72.85714285714285</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>66.14895716994363</v>
+        <v>73.85714285714285</v>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>45/88</t>
+          <t>38/65</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
@@ -959,17 +959,17 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>63.27108386795148</v>
+        <v>72.26890756302521</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>63.27108386795148</v>
+        <v>72.26890756302521</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>42/88</t>
+          <t>37/65</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
@@ -988,17 +988,17 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>60.74647411755539</v>
+        <v>69.32773109243698</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>60.74647411755539</v>
+        <v>69.32773109243698</v>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>40/88</t>
+          <t>35/65</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
@@ -1013,26 +1013,26 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>38963</t>
+          <t>38962</t>
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>53.75185060128309</v>
+        <v>61.93277310924369</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>54.75185060128309</v>
+        <v>61.93277310924369</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>33/88</t>
+          <t>31/65</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Multi-Session Support (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1042,26 +1042,26 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>38951</t>
+          <t>38977</t>
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>52.30773226669437</v>
+        <v>60.84033613445378</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>53.30773226669437</v>
+        <v>60.84033613445378</v>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>33/88</t>
+          <t>30/65</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Mathematical Analysis (+1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1071,26 +1071,26 @@
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>38955</t>
+          <t>38963</t>
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>52.08955611542557</v>
+        <v>59.83193277310924</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>52.08955611542557</v>
+        <v>60.83193277310924</v>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>29/88</t>
+          <t>29/65</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Multi-Session Support (+1)</t>
         </is>
       </c>
     </row>
@@ -1104,17 +1104,17 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>49.78312251629828</v>
+        <v>58.15126050420167</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>51.78312251629828</v>
+        <v>60.15126050420167</v>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>30/88</t>
+          <t>30/65</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
@@ -1133,17 +1133,17 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>49.78312251629828</v>
+        <v>58.15126050420167</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51.78312251629828</v>
+        <v>60.15126050420167</v>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>30/88</t>
+          <t>30/65</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
@@ -1158,26 +1158,26 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>38962</t>
+          <t>38951</t>
         </is>
       </c>
       <c r="C24" s="6" t="n">
-        <v>51.51814238591206</v>
+        <v>58.31932773109244</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>51.51814238591206</v>
+        <v>59.31932773109244</v>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>31/88</t>
+          <t>29/65</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mathematical Analysis (+1)</t>
         </is>
       </c>
     </row>
@@ -1187,21 +1187,21 @@
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>38977</t>
+          <t>38955</t>
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>50.58050440248305</v>
+        <v>58.73949579831933</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>50.58050440248305</v>
+        <v>58.73949579831933</v>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>30/88</t>
+          <t>27/65</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
@@ -1220,17 +1220,17 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>46.67670969585206</v>
+        <v>55.46218487394957</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>46.67670969585206</v>
+        <v>55.46218487394957</v>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>25/88</t>
+          <t>25/65</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
@@ -1249,17 +1249,17 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>44.15209994545597</v>
+        <v>52.52100840336134</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>44.15209994545597</v>
+        <v>52.52100840336134</v>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>23/88</t>
+          <t>23/65</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
@@ -1278,17 +1278,17 @@
         </is>
       </c>
       <c r="C28" s="6" t="n">
-        <v>42.78070699462352</v>
+        <v>49.49579831932773</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>42.78070699462352</v>
+        <v>49.49579831932773</v>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>22/88</t>
+          <t>21/65</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
@@ -1307,17 +1307,17 @@
         </is>
       </c>
       <c r="C29" s="6" t="n">
-        <v>42.20929326511001</v>
+        <v>48.15126050420167</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>42.20929326511001</v>
+        <v>48.15126050420167</v>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>22/88</t>
+          <t>21/65</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
@@ -1336,17 +1336,17 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>40.62232149814291</v>
+        <v>46.30252100840336</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>40.62232149814291</v>
+        <v>46.30252100840336</v>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>21/88</t>
+          <t>20/65</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
@@ -1365,17 +1365,17 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>39.25092854731046</v>
+        <v>45.46218487394958</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>39.25092854731046</v>
+        <v>45.46218487394958</v>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>22/88</t>
+          <t>20/65</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
@@ -1394,17 +1394,17 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>39.25092854731046</v>
+        <v>45.46218487394958</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>39.25092854731046</v>
+        <v>45.46218487394958</v>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>22/88</t>
+          <t>20/65</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
@@ -1423,17 +1423,17 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>38.30809589361316</v>
+        <v>43.61344537815125</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>38.30809589361316</v>
+        <v>43.61344537815125</v>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>19/88</t>
+          <t>18/65</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
@@ -1452,17 +1452,17 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>28.2849796109192</v>
+        <v>33.86554621848739</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>28.2849796109192</v>
+        <v>33.86554621848739</v>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>14/88</t>
+          <t>14/65</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
@@ -1481,17 +1481,17 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>26.69800784395211</v>
+        <v>32.01680672268908</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>26.69800784395211</v>
+        <v>32.01680672268908</v>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>13/88</t>
+          <t>13/65</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
@@ -1510,17 +1510,17 @@
         </is>
       </c>
       <c r="C36" s="6" t="n">
-        <v>11.61528271992935</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>11.61528271992935</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>5/88</t>
+          <t>5/65</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
@@ -1539,17 +1539,17 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>10.38934053660944</v>
+        <v>12.10084033613445</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>10.38934053660944</v>
+        <v>12.10084033613445</v>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>4/88</t>
+          <t>4/65</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1630,7 +1630,7 @@
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>Heroku Deployment</t>
+          <t>PDF Support</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -1645,14 +1645,14 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>38960, 38970</t>
+          <t>38979, 38980</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
         <is>
-          <t>PDF Support</t>
+          <t>Test Automation</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
@@ -1667,14 +1667,14 @@
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>38979, 38980</t>
+          <t>59378, 38981</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="inlineStr">
         <is>
-          <t>Test Automation</t>
+          <t>Image Analysis</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
@@ -1689,19 +1689,19 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>38981, 59378</t>
+          <t>38992, 38986</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
         <is>
-          <t>Image Analysis</t>
+          <t>Mathematical Analysis</t>
         </is>
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>13.9%</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
@@ -1711,19 +1711,19 @@
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>38986, 38992</t>
+          <t>38981, 38951, 59378, 38970, 38960</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>Shadcn UI</t>
+          <t>Contributing Guide</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>8.3%</t>
+          <t>13.9%</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -1733,19 +1733,19 @@
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>38953, 38988, 38989</t>
+          <t>38981, 59378, 38970, 38960, 38952</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>Black Formatter</t>
+          <t>Multi-Session Support</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>13.9%</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -1755,73 +1755,7 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>38959, 38981, 59375, 59378</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Mathematical Analysis</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>13.9%</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>38951, 38960, 38970, 38981, 59378</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Contributing Guide</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>13.9%</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>38952, 38960, 38970, 38981, 59378</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Multi-Session Support</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>13.9%</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>38952, 38963, 38986, 38992, 59373</t>
+          <t>38963, 38986, 38952, 38992, 59373</t>
         </is>
       </c>
     </row>

--- a/outputs/grades.xlsx
+++ b/outputs/grades.xlsx
@@ -34,7 +34,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +45,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="004472C4"/>
         <bgColor rgb="004472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -66,19 +72,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -447,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -508,26 +520,26 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>87694</t>
+          <t>38954</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>80</v>
+        <v>93.92624728850326</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>87</v>
+        <v>95.92624728850326</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>31/45</t>
+          <t>26/30</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>Research Methodology (+1), Prompt Engineering Log (+1), UX Heuristics Documentation (+1), Event-driven Architecture (+1), Monitoring (+1), Ollama (+1), Professional Packaging &amp; Distribution (+1)</t>
+          <t>Multi-Stage Pipeline (+1), API Documentation (+1)</t>
         </is>
       </c>
     </row>
@@ -537,26 +549,26 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>87690</t>
+          <t>38964</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>72.43243243243244</v>
+        <v>92.19088937093275</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>76.43243243243244</v>
+        <v>94.19088937093275</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>25/45</t>
+          <t>25/30</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>Security Documentation (+1), Prompt Engineering Log (+1), Event-driven Architecture (+1), Professional Packaging &amp; Distribution (+1)</t>
+          <t>Multi-Stage Pipeline (+1), API Documentation (+1)</t>
         </is>
       </c>
     </row>
@@ -566,314 +578,981 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>87696</t>
+          <t>38979</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>73.51351351351353</v>
+        <v>89.15401301518438</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>75.51351351351353</v>
+        <v>90.15401301518438</v>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24/45</t>
+          <t>23/30</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>Contributing Guidelines (+1), Code Linting (+1)</t>
+          <t>API Documentation (+1)</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>87691</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>73.51351351351353</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>75.51351351351353</v>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>24/45</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>38980</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>87.41865509761388</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>88.41865509761388</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>22/30</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Contributing Guidelines (+1), Code Linting (+1)</t>
+          <t>API Documentation (+1)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>87684</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>61.62162162162163</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>61.62162162162163</v>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>17/45</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>38977</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>85.24945770065075</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>86.24945770065075</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>20/30</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Multi-Stage Pipeline (+1)</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>87681</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>52.97297297297298</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>38962</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>85.24945770065075</v>
+      </c>
+      <c r="D7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>53.97297297297298</v>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>15/45</t>
+      <c r="E7" s="6" t="n">
+        <v>86.24945770065075</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>20/30</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>Logging with Rotation (+1)</t>
+          <t>Multi-Stage Pipeline (+1)</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>87698</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>48.64864864864865</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>48.64864864864865</v>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12/45</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>38981</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>82.21258134490239</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>83.21258134490239</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>20/30</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Use Cases Documentation (+1)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>87706</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>44.86486486486487</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>46.86486486486487</v>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>14/45</t>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>59378</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>80.47722342733189</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>81.47722342733189</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>19/30</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>89% Test Coverage (+1), Comprehensive Test Suite (1000+ tests) (+1)</t>
+          <t>Use Cases Documentation (+1)</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>87683</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>34.05405405405406</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>34.05405405405406</v>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8/45</t>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>38951</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>76.78958785249458</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>77.78958785249458</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>17/30</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Multi-Stage Pipeline (+1)</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>87707</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>22.70270270270271</v>
-      </c>
-      <c r="D11" s="2" t="n">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>38960</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>72.45119305856834</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>72.45119305856834</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>16/30</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>38970</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>70.71583514099783</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>70.71583514099783</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>15/30</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>38955</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>69.84815618221259</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>69.84815618221259</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>14/30</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>38952</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>68.76355748373102</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>68.76355748373102</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>14/30</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>38959</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>67.24511930585683</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="n">
-        <v>23.70270270270271</v>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6/45</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>Getting Started Guide (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>87721</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>22.70270270270271</v>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="E15" s="6" t="n">
+        <v>68.24511930585683</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>14/30</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Methodology Documentation (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>59375</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>67.24511930585683</v>
+      </c>
+      <c r="D16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="n">
-        <v>23.70270270270271</v>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6/45</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>Getting Started Guide (+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>87685</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>10.81081081081081</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>10.81081081081081</v>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2/45</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>87682</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>7.027027027027027</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>7.027027027027027</v>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1/45</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="E16" s="6" t="n">
+        <v>68.24511930585683</v>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>14/30</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>Methodology Documentation (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>59373</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>64.64208242950109</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>64.64208242950109</v>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>13/30</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>38989</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>61.60520607375272</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>61.60520607375272</v>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>11/30</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>38988</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>61.60520607375272</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>61.60520607375272</v>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>11/30</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>38953</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>61.60520607375272</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>61.60520607375272</v>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>11/30</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>38990</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>59.21908893709328</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>59.21908893709328</v>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>38984</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>59.21908893709328</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>59.21908893709328</v>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>38982</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>57.9175704989154</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>58.9175704989154</v>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>11/30</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>Methodology Documentation (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>38993</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>57.9175704989154</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>58.9175704989154</v>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>11/30</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>Methodology Documentation (+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>38969</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>57.70065075921909</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>57.70065075921909</v>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>11/30</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>38992</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>55.09761388286334</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>55.09761388286334</v>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>11/30</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>38986</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>55.09761388286334</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>55.09761388286334</v>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>11/30</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>38963</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>54.66377440347073</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>54.66377440347073</v>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>59376</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>54.01301518438179</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>54.01301518438179</v>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>38950</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>51.62689804772235</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>51.62689804772235</v>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>9/30</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>38958</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>47.50542299349241</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>47.50542299349241</v>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>8/30</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>38971</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>44.25162689804772</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>44.25162689804772</v>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>7/30</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>38973</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>40.56399132321042</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>40.56399132321042</v>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>6/30</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>38966</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>26.2472885032538</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>26.2472885032538</v>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>4/30</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>38985</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>22.55965292841648</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>22.55965292841648</v>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>3/30</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>38957</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>15.61822125813449</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>15.61822125813449</v>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>2/30</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>38961</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>15.61822125813449</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>15.61822125813449</v>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>2/30</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -890,7 +1569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,332 +1584,112 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Criterion</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Prevalence</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Bonus</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Students Who Have It</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>Security Documentation</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>Use Cases Documentation</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>87690</t>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>59378, 38981</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>Research Methodology</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>API Documentation</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>11.1%</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>87694</t>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>38964, 38980, 38979, 38954</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>UX Heuristics Documentation</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Methodology Documentation</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>11.1%</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>87694</t>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>59375, 38993, 38959, 38982</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Logging with Rotation</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Multi-Stage Pipeline</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>13.9%</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>87681</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Monitoring</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>87694</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Ollama</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>87694</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>89% Test Coverage</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>87706</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Comprehensive Test Suite (1000+ tests)</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>87706</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Contributing Guidelines</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>14.3%</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>87696, 87691</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Prompt Engineering Log</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>14.3%</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>87690, 87694</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Code Linting</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>14.3%</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>87696, 87691</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Event-driven Architecture</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>14.3%</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>87690, 87694</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Getting Started Guide</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>14.3%</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>87707, 87721</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Professional Packaging &amp; Distribution</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>14.3%</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>87690, 87694</t>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>38962, 38951, 38964, 38954, 38977</t>
         </is>
       </c>
     </row>
